--- a/documentacao/BackLog - ProEagle.xlsx
+++ b/documentacao/BackLog - ProEagle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adais\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Faculdade\PI 2° Semestre\grupo-03-adsa-20201\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8014E-BB2C-4131-89EE-AEEBAC1C1665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -101,9 +102,6 @@
     <t>.009</t>
   </si>
   <si>
-    <t>Banco de dados - Dados dos processessos (Data / Hora )</t>
-  </si>
-  <si>
     <t>.010</t>
   </si>
   <si>
@@ -171,12 +169,15 @@
   </si>
   <si>
     <t xml:space="preserve">Alertas em notificações por mensagem </t>
+  </si>
+  <si>
+    <t>Banco de dados - Dados dos processos (Data / Hora )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,25 +405,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -713,11 +714,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="H1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,15 +733,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="8:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="16"/>
@@ -752,25 +753,25 @@
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="8:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -797,7 +798,7 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="4"/>
@@ -902,7 +903,7 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="4"/>
@@ -913,11 +914,11 @@
     </row>
     <row r="13" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="4"/>
@@ -928,11 +929,11 @@
     </row>
     <row r="14" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="4"/>
@@ -943,11 +944,11 @@
     </row>
     <row r="15" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="4"/>
@@ -958,11 +959,11 @@
     </row>
     <row r="16" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="4"/>
@@ -973,11 +974,11 @@
     </row>
     <row r="17" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
@@ -988,11 +989,11 @@
     </row>
     <row r="18" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
@@ -1003,11 +1004,11 @@
     </row>
     <row r="19" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
@@ -1018,11 +1019,11 @@
     </row>
     <row r="20" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="4"/>
@@ -1033,11 +1034,11 @@
     </row>
     <row r="21" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="4"/>
@@ -1048,11 +1049,11 @@
     </row>
     <row r="22" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="4"/>
@@ -1063,11 +1064,11 @@
     </row>
     <row r="23" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="4"/>
@@ -1078,11 +1079,11 @@
     </row>
     <row r="24" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="4" t="s">

--- a/documentacao/BackLog - ProEagle.xlsx
+++ b/documentacao/BackLog - ProEagle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Faculdade\PI 2° Semestre\grupo-03-adsa-20201\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8014E-BB2C-4131-89EE-AEEBAC1C1665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F0E8A0-D5FD-495B-AE12-5E1016513EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t xml:space="preserve"> BackLog</t>
   </si>
@@ -156,13 +156,7 @@
     <t>Site Institucional -  Equipe  (Time de desenvolvedores/ contato dos Dev's)</t>
   </si>
   <si>
-    <t>.020</t>
-  </si>
-  <si>
     <t>Site Institucional -   Menu de navegação</t>
-  </si>
-  <si>
-    <t>.021</t>
   </si>
   <si>
     <t>Desenvolvimento em HTML / CSS / JavãoScript</t>
@@ -715,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H1:N24"/>
+  <dimension ref="H1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +792,7 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="4"/>
@@ -903,7 +897,7 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="4"/>
@@ -1023,7 +1017,7 @@
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="4"/>
@@ -1038,7 +1032,7 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="4"/>
@@ -1053,44 +1047,14 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="L22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
